--- a/wrong conditional formatting bug.xlsx
+++ b/wrong conditional formatting bug.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{006FDEE3-47BF-4CFA-9DEC-2B0C87A99798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{220913D6-74AD-4A4C-943B-ABD1ED85A2B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEF2C24-6537-4530-B47C-648E15B72448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="4140" windowWidth="28310" windowHeight="15790" xr2:uid="{9C99B3D9-69A8-423C-A54E-9F7C6029D741}"/>
   </bookViews>
